--- a/Code/Results/Cases/Case_0_126/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_126/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1396897730386257</v>
+        <v>0.0464788531968594</v>
       </c>
       <c r="D2">
-        <v>0.03081114125794926</v>
+        <v>0.01438901658912073</v>
       </c>
       <c r="E2">
-        <v>0.0543047030361663</v>
+        <v>0.0882776211624261</v>
       </c>
       <c r="F2">
-        <v>6.865739170186629</v>
+        <v>5.642909543315625</v>
       </c>
       <c r="G2">
-        <v>0.0008105854345980776</v>
+        <v>0.00261952693826909</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2892375287810864</v>
+        <v>0.2621564063342419</v>
       </c>
       <c r="K2">
-        <v>5.117197326418705</v>
+        <v>3.437531336783763</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1194846013760156</v>
+        <v>0.04138572481257086</v>
       </c>
       <c r="D3">
-        <v>0.02635240400621797</v>
+        <v>0.01373699565459674</v>
       </c>
       <c r="E3">
-        <v>0.04844541660810009</v>
+        <v>0.08799679838679708</v>
       </c>
       <c r="F3">
-        <v>6.136290468233426</v>
+        <v>5.482549938652738</v>
       </c>
       <c r="G3">
-        <v>0.0008244208297833482</v>
+        <v>0.00262730893706258</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.256066100314797</v>
+        <v>0.255853961227956</v>
       </c>
       <c r="K3">
-        <v>4.413629150568966</v>
+        <v>3.305625578365778</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1074218335547528</v>
+        <v>0.03828215826391101</v>
       </c>
       <c r="D4">
-        <v>0.02374047222465592</v>
+        <v>0.01334850134078636</v>
       </c>
       <c r="E4">
-        <v>0.04500452073552097</v>
+        <v>0.08789105724109803</v>
       </c>
       <c r="F4">
-        <v>5.705881379972993</v>
+        <v>5.386418769756347</v>
       </c>
       <c r="G4">
-        <v>0.0008330452051454134</v>
+        <v>0.002632327315738799</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2364872756656808</v>
+        <v>0.252137334713467</v>
       </c>
       <c r="K4">
-        <v>3.995909235922909</v>
+        <v>3.227675352603285</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1025783850376456</v>
+        <v>0.03702314928105466</v>
       </c>
       <c r="D5">
-        <v>0.02270205760498456</v>
+        <v>0.0131930362478343</v>
       </c>
       <c r="E5">
-        <v>0.04363713659111568</v>
+        <v>0.08786472243632204</v>
       </c>
       <c r="F5">
-        <v>5.534254391686517</v>
+        <v>5.347819296562534</v>
       </c>
       <c r="G5">
-        <v>0.0008365978379249954</v>
+        <v>0.002634433001328191</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2286797004124423</v>
+        <v>0.2506608812822577</v>
       </c>
       <c r="K5">
-        <v>3.828746462414813</v>
+        <v>3.196668959954195</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.101778117890035</v>
+        <v>0.03681443078552604</v>
       </c>
       <c r="D6">
-        <v>0.02253104701385311</v>
+        <v>0.01316738970684028</v>
       </c>
       <c r="E6">
-        <v>0.04341206277650755</v>
+        <v>0.08786136122106925</v>
       </c>
       <c r="F6">
-        <v>5.50596663597068</v>
+        <v>5.341444272237879</v>
       </c>
       <c r="G6">
-        <v>0.0008371902033827431</v>
+        <v>0.002634786319817851</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2273928503376936</v>
+        <v>0.2504180071465356</v>
       </c>
       <c r="K6">
-        <v>3.801159992909277</v>
+        <v>3.19156605141302</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1073562380038169</v>
+        <v>0.03826515596347235</v>
       </c>
       <c r="D7">
-        <v>0.02372636957889185</v>
+        <v>0.01334639331802734</v>
       </c>
       <c r="E7">
-        <v>0.04498594441492898</v>
+        <v>0.08789063425299659</v>
       </c>
       <c r="F7">
-        <v>5.703552271046107</v>
+        <v>5.385895891294979</v>
       </c>
       <c r="G7">
-        <v>0.0008330929560596001</v>
+        <v>0.002632355467659608</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2363813213744805</v>
+        <v>0.2521172689899487</v>
       </c>
       <c r="K7">
-        <v>3.9936430716063</v>
+        <v>3.227254123792306</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.132642697363849</v>
+        <v>0.04471769998190211</v>
       </c>
       <c r="D8">
-        <v>0.02924401369341467</v>
+        <v>0.01416166171317457</v>
       </c>
       <c r="E8">
-        <v>0.05224891722285818</v>
+        <v>0.08816694407802572</v>
       </c>
       <c r="F8">
-        <v>6.610194801730529</v>
+        <v>5.587127066978752</v>
       </c>
       <c r="G8">
-        <v>0.0008153326263019529</v>
+        <v>0.002622160472378843</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2776187241187245</v>
+        <v>0.2599513042672612</v>
       </c>
       <c r="K8">
-        <v>4.871303491752371</v>
+        <v>3.391415718970961</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1857054700422225</v>
+        <v>0.05756949035897208</v>
       </c>
       <c r="D9">
-        <v>0.0413663624732763</v>
+        <v>0.01586037637054005</v>
       </c>
       <c r="E9">
-        <v>0.06798264629753348</v>
+        <v>0.0892387982657219</v>
       </c>
       <c r="F9">
-        <v>8.560193749068048</v>
+        <v>6.000762038580348</v>
       </c>
       <c r="G9">
-        <v>0.0007812332847646255</v>
+        <v>0.002604062284101317</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3662040056921256</v>
+        <v>0.2765477953987272</v>
       </c>
       <c r="K9">
-        <v>6.734009103329186</v>
+        <v>3.737743048217624</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2280935786752281</v>
+        <v>0.06714874068239851</v>
       </c>
       <c r="D10">
-        <v>0.05159333767988983</v>
+        <v>0.01717775731424354</v>
       </c>
       <c r="E10">
-        <v>0.08087688374729751</v>
+        <v>0.09035109224365456</v>
       </c>
       <c r="F10">
-        <v>10.15484731559121</v>
+        <v>6.317029612363683</v>
       </c>
       <c r="G10">
-        <v>0.0007561165540447121</v>
+        <v>0.002591903802676526</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4384954141486048</v>
+        <v>0.2895219999239345</v>
       </c>
       <c r="K10">
-        <v>8.237655662215161</v>
+        <v>4.007504304577481</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2484936608541233</v>
+        <v>0.07153996008926811</v>
       </c>
       <c r="D11">
-        <v>0.05669090034417223</v>
+        <v>0.01779396702136893</v>
       </c>
       <c r="E11">
-        <v>0.08715898444145154</v>
+        <v>0.09092806776114415</v>
       </c>
       <c r="F11">
-        <v>10.93231209606853</v>
+        <v>6.463766043766498</v>
       </c>
       <c r="G11">
-        <v>0.0007445269000757238</v>
+        <v>0.002586616205130655</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4736872345509653</v>
+        <v>0.2956002525491215</v>
       </c>
       <c r="K11">
-        <v>8.965542677054088</v>
+        <v>4.133651315647967</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2564207029465706</v>
+        <v>0.07320791032182683</v>
       </c>
       <c r="D12">
-        <v>0.05870291331409305</v>
+        <v>0.01802989508886554</v>
       </c>
       <c r="E12">
-        <v>0.08961166411047117</v>
+        <v>0.09115679531851484</v>
       </c>
       <c r="F12">
-        <v>11.23605224683564</v>
+        <v>6.51975691826334</v>
       </c>
       <c r="G12">
-        <v>0.0007400982378445792</v>
+        <v>0.002584648647593976</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4874263863252395</v>
+        <v>0.2979277763925268</v>
       </c>
       <c r="K12">
-        <v>9.24908417161646</v>
+        <v>4.18192115737736</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2547037181154792</v>
+        <v>0.07284845672596418</v>
       </c>
       <c r="D13">
-        <v>0.05826562458579332</v>
+        <v>0.01797896649105013</v>
       </c>
       <c r="E13">
-        <v>0.08907989344243816</v>
+        <v>0.09110707881148983</v>
       </c>
       <c r="F13">
-        <v>11.17018679307887</v>
+        <v>6.507679170748418</v>
       </c>
       <c r="G13">
-        <v>0.0007410541103214104</v>
+        <v>0.002585070855119829</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4844475356043461</v>
+        <v>0.2974253462851095</v>
       </c>
       <c r="K13">
-        <v>9.187636794837317</v>
+        <v>4.171502995240076</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.249141501469154</v>
+        <v>0.07167707980194393</v>
       </c>
       <c r="D14">
-        <v>0.05685467471558781</v>
+        <v>0.01781332434070038</v>
       </c>
       <c r="E14">
-        <v>0.08735919657897639</v>
+        <v>0.09094667991023186</v>
       </c>
       <c r="F14">
-        <v>10.95710169405442</v>
+        <v>6.468363854121037</v>
       </c>
       <c r="G14">
-        <v>0.0007441634597991325</v>
+        <v>0.002586453638210584</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4748087503721337</v>
+        <v>0.2957912190368006</v>
       </c>
       <c r="K14">
-        <v>8.988700697764216</v>
+        <v>4.137612426947157</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2457621889427202</v>
+        <v>0.07096024849910521</v>
       </c>
       <c r="D15">
-        <v>0.05600166860153877</v>
+        <v>0.01771220455936628</v>
       </c>
       <c r="E15">
-        <v>0.08631530259537712</v>
+        <v>0.09084976541531731</v>
       </c>
       <c r="F15">
-        <v>10.8278589436834</v>
+        <v>6.444337822330567</v>
       </c>
       <c r="G15">
-        <v>0.0007460622726575334</v>
+        <v>0.00258730514925652</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4689612344312764</v>
+        <v>0.294793646115906</v>
       </c>
       <c r="K15">
-        <v>8.867930754277211</v>
+        <v>4.11691890308191</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2267861740337196</v>
+        <v>0.06686246206585622</v>
       </c>
       <c r="D16">
-        <v>0.05127056527456375</v>
+        <v>0.01713783983142747</v>
       </c>
       <c r="E16">
-        <v>0.08047582391529673</v>
+        <v>0.09031481661710572</v>
       </c>
       <c r="F16">
-        <v>10.1052331132525</v>
+        <v>6.307498795200559</v>
       </c>
       <c r="G16">
-        <v>0.0007568693605985408</v>
+        <v>0.002592254235163279</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.43624843596902</v>
+        <v>0.2891283586996849</v>
       </c>
       <c r="K16">
-        <v>8.191096888773075</v>
+        <v>3.999329964085462</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2154575601710889</v>
+        <v>0.06435738649572897</v>
       </c>
       <c r="D17">
-        <v>0.04849340877914443</v>
+        <v>0.01678992608673013</v>
       </c>
       <c r="E17">
-        <v>0.07700900281646739</v>
+        <v>0.09000484598890779</v>
       </c>
       <c r="F17">
-        <v>9.676433314959496</v>
+        <v>6.224295402088899</v>
       </c>
       <c r="G17">
-        <v>0.0007634467593024786</v>
+        <v>0.002595352488051548</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4168225417144669</v>
+        <v>0.2856983614980777</v>
       </c>
       <c r="K17">
-        <v>7.788133835045187</v>
+        <v>3.928076894658034</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2090438526937959</v>
+        <v>0.06291967697424639</v>
       </c>
       <c r="D18">
-        <v>0.04693668830752529</v>
+        <v>0.01659139946440291</v>
       </c>
       <c r="E18">
-        <v>0.07505317210344842</v>
+        <v>0.08983323869378523</v>
       </c>
       <c r="F18">
-        <v>9.434564846251192</v>
+        <v>6.176707858859317</v>
       </c>
       <c r="G18">
-        <v>0.0007672156540350835</v>
+        <v>0.00259715744223829</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4058604817062559</v>
+        <v>0.2837420751835538</v>
       </c>
       <c r="K18">
-        <v>7.560373822199438</v>
+        <v>3.887416528101767</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2068887370663646</v>
+        <v>0.06243342524111029</v>
       </c>
       <c r="D19">
-        <v>0.04641612120454397</v>
+        <v>0.01652444934746455</v>
       </c>
       <c r="E19">
-        <v>0.07439715194397323</v>
+        <v>0.08977628172631924</v>
       </c>
       <c r="F19">
-        <v>9.353441758240734</v>
+        <v>6.160641316244693</v>
       </c>
       <c r="G19">
-        <v>0.0007684897240740941</v>
+        <v>0.002597772513241909</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4021830327078959</v>
+        <v>0.2830825395342771</v>
       </c>
       <c r="K19">
-        <v>7.483905152235423</v>
+        <v>3.873704800771691</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2166526647269933</v>
+        <v>0.06462372881780709</v>
       </c>
       <c r="D20">
-        <v>0.04878472373419385</v>
+        <v>0.01682679707397483</v>
       </c>
       <c r="E20">
-        <v>0.07737400922648519</v>
+        <v>0.09003715135753509</v>
       </c>
       <c r="F20">
-        <v>9.72157459926288</v>
+        <v>6.233124627007442</v>
       </c>
       <c r="G20">
-        <v>0.000762748164535565</v>
+        <v>0.002595020303330963</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.4188680782642109</v>
+        <v>0.2860617734862956</v>
       </c>
       <c r="K20">
-        <v>7.830604228609957</v>
+        <v>3.935628474525743</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2507693963948441</v>
+        <v>0.07202100130933786</v>
       </c>
       <c r="D21">
-        <v>0.05726672366785834</v>
+        <v>0.01786190616024186</v>
       </c>
       <c r="E21">
-        <v>0.08786247566656158</v>
+        <v>0.09099351479439832</v>
       </c>
       <c r="F21">
-        <v>11.01941962140722</v>
+        <v>6.479900076935792</v>
       </c>
       <c r="G21">
-        <v>0.000743251402810796</v>
+        <v>0.002586046540417481</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4776279413054993</v>
+        <v>0.2962704971407675</v>
       </c>
       <c r="K21">
-        <v>9.046903648132513</v>
+        <v>4.147553259886649</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2742714164618292</v>
+        <v>0.07688534585773255</v>
       </c>
       <c r="D22">
-        <v>0.06329828268854243</v>
+        <v>0.01855353528830506</v>
       </c>
       <c r="E22">
-        <v>0.09515668808257871</v>
+        <v>0.0916782536179781</v>
       </c>
       <c r="F22">
-        <v>11.92325994651486</v>
+        <v>6.643665388925115</v>
       </c>
       <c r="G22">
-        <v>0.0007302655812123817</v>
+        <v>0.002580384046207985</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.5184911897963502</v>
+        <v>0.3030932275195397</v>
       </c>
       <c r="K22">
-        <v>9.888985203853849</v>
+        <v>4.288980434205826</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2616011311555866</v>
+        <v>0.0742863383788972</v>
       </c>
       <c r="D23">
-        <v>0.06002729254623773</v>
+        <v>0.01818296601341984</v>
       </c>
       <c r="E23">
-        <v>0.09121782182060656</v>
+        <v>0.09130732189785817</v>
       </c>
       <c r="F23">
-        <v>11.43503067278562</v>
+        <v>6.556029169001533</v>
       </c>
       <c r="G23">
-        <v>0.0007372252195769725</v>
+        <v>0.002583387792103127</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4964239080924386</v>
+        <v>0.2994378531698203</v>
       </c>
       <c r="K23">
-        <v>9.434590136928477</v>
+        <v>4.213228239641694</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.216112051742698</v>
+        <v>0.06450330771252766</v>
       </c>
       <c r="D24">
-        <v>0.04865289721632848</v>
+        <v>0.0168101230598694</v>
       </c>
       <c r="E24">
-        <v>0.07720887467448634</v>
+        <v>0.09002252554843793</v>
       </c>
       <c r="F24">
-        <v>9.701151860448221</v>
+        <v>6.229132165444582</v>
       </c>
       <c r="G24">
-        <v>0.0007630640371892207</v>
+        <v>0.002595170410030454</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.4179426549274012</v>
+        <v>0.2858974261703509</v>
       </c>
       <c r="K24">
-        <v>7.811391303365326</v>
+        <v>3.932213459010029</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1708608168939492</v>
+        <v>0.05406985807610454</v>
       </c>
       <c r="D25">
-        <v>0.03789968009161981</v>
+        <v>0.01538926631313586</v>
       </c>
       <c r="E25">
-        <v>0.06352778192445285</v>
+        <v>0.08889192644198829</v>
       </c>
       <c r="F25">
-        <v>8.009019889231297</v>
+        <v>5.886747220328772</v>
       </c>
       <c r="G25">
-        <v>0.0007904266311507572</v>
+        <v>0.002608757241864421</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3411841362161852</v>
+        <v>0.2719229922770268</v>
       </c>
       <c r="K25">
-        <v>6.210486480966438</v>
+        <v>3.641395263629818</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_126/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_126/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0464788531968594</v>
+        <v>0.1396897730382136</v>
       </c>
       <c r="D2">
-        <v>0.01438901658912073</v>
+        <v>0.03081114125790663</v>
       </c>
       <c r="E2">
-        <v>0.0882776211624261</v>
+        <v>0.05430470303622315</v>
       </c>
       <c r="F2">
-        <v>5.642909543315625</v>
+        <v>6.865739170186714</v>
       </c>
       <c r="G2">
-        <v>0.00261952693826909</v>
+        <v>0.0008105854347433993</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2621564063342419</v>
+        <v>0.2892375287811007</v>
       </c>
       <c r="K2">
-        <v>3.437531336783763</v>
+        <v>5.117197326418705</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04138572481257086</v>
+        <v>0.1194846013763282</v>
       </c>
       <c r="D3">
-        <v>0.01373699565459674</v>
+        <v>0.02635240400627481</v>
       </c>
       <c r="E3">
-        <v>0.08799679838679708</v>
+        <v>0.04844541660807167</v>
       </c>
       <c r="F3">
-        <v>5.482549938652738</v>
+        <v>6.136290468233511</v>
       </c>
       <c r="G3">
-        <v>0.00262730893706258</v>
+        <v>0.0008244208297722812</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.255853961227956</v>
+        <v>0.2560661003147828</v>
       </c>
       <c r="K3">
-        <v>3.305625578365778</v>
+        <v>4.413629150569022</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03828215826391101</v>
+        <v>0.1074218335549091</v>
       </c>
       <c r="D4">
-        <v>0.01334850134078636</v>
+        <v>0.02374047222471631</v>
       </c>
       <c r="E4">
-        <v>0.08789105724109803</v>
+        <v>0.04500452073555294</v>
       </c>
       <c r="F4">
-        <v>5.386418769756347</v>
+        <v>5.705881379973022</v>
       </c>
       <c r="G4">
-        <v>0.002632327315738799</v>
+        <v>0.0008330452052141224</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.252137334713467</v>
+        <v>0.236487275665894</v>
       </c>
       <c r="K4">
-        <v>3.227675352603285</v>
+        <v>3.995909235922909</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03702314928105466</v>
+        <v>0.1025783850383988</v>
       </c>
       <c r="D5">
-        <v>0.0131930362478343</v>
+        <v>0.0227020576050414</v>
       </c>
       <c r="E5">
-        <v>0.08786472243632204</v>
+        <v>0.04363713659111568</v>
       </c>
       <c r="F5">
-        <v>5.347819296562534</v>
+        <v>5.534254391686432</v>
       </c>
       <c r="G5">
-        <v>0.002634433001328191</v>
+        <v>0.0008365978379372014</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2506608812822577</v>
+        <v>0.2286797004124992</v>
       </c>
       <c r="K5">
-        <v>3.196668959954195</v>
+        <v>3.82874646241487</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03681443078552604</v>
+        <v>0.1017781178905892</v>
       </c>
       <c r="D6">
-        <v>0.01316738970684028</v>
+        <v>0.02253104701403785</v>
       </c>
       <c r="E6">
-        <v>0.08786136122106925</v>
+        <v>0.04341206277649334</v>
       </c>
       <c r="F6">
-        <v>5.341444272237879</v>
+        <v>5.505966635970651</v>
       </c>
       <c r="G6">
-        <v>0.002634786319817851</v>
+        <v>0.0008371902032916496</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2504180071465356</v>
+        <v>0.2273928503376368</v>
       </c>
       <c r="K6">
-        <v>3.19156605141302</v>
+        <v>3.80115999290922</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03826515596347235</v>
+        <v>0.1073562380036606</v>
       </c>
       <c r="D7">
-        <v>0.01334639331802734</v>
+        <v>0.02372636957882435</v>
       </c>
       <c r="E7">
-        <v>0.08789063425299659</v>
+        <v>0.04498594441496451</v>
       </c>
       <c r="F7">
-        <v>5.385895891294979</v>
+        <v>5.703552271046163</v>
       </c>
       <c r="G7">
-        <v>0.002632355467659608</v>
+        <v>0.0008330929560490437</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2521172689899487</v>
+        <v>0.2363813213744805</v>
       </c>
       <c r="K7">
-        <v>3.227254123792306</v>
+        <v>3.993643071606243</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04471769998190211</v>
+        <v>0.1326426973633943</v>
       </c>
       <c r="D8">
-        <v>0.01416166171317457</v>
+        <v>0.02924401369343599</v>
       </c>
       <c r="E8">
-        <v>0.08816694407802572</v>
+        <v>0.05224891722291503</v>
       </c>
       <c r="F8">
-        <v>5.587127066978752</v>
+        <v>6.610194801730529</v>
       </c>
       <c r="G8">
-        <v>0.002622160472378843</v>
+        <v>0.0008153326263075464</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2599513042672612</v>
+        <v>0.2776187241187813</v>
       </c>
       <c r="K8">
-        <v>3.391415718970961</v>
+        <v>4.871303491752258</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.05756949035897208</v>
+        <v>0.1857054700422793</v>
       </c>
       <c r="D9">
-        <v>0.01586037637054005</v>
+        <v>0.04136636247334735</v>
       </c>
       <c r="E9">
-        <v>0.0892387982657219</v>
+        <v>0.06798264629761519</v>
       </c>
       <c r="F9">
-        <v>6.000762038580348</v>
+        <v>8.560193749068048</v>
       </c>
       <c r="G9">
-        <v>0.002604062284101317</v>
+        <v>0.0007812332846703505</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2765477953987272</v>
+        <v>0.3662040056920262</v>
       </c>
       <c r="K9">
-        <v>3.737743048217624</v>
+        <v>6.734009103329072</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.06714874068239851</v>
+        <v>0.2280935786756402</v>
       </c>
       <c r="D10">
-        <v>0.01717775731424354</v>
+        <v>0.05159333767964114</v>
       </c>
       <c r="E10">
-        <v>0.09035109224365456</v>
+        <v>0.08087688374739699</v>
       </c>
       <c r="F10">
-        <v>6.317029612363683</v>
+        <v>10.15484731559127</v>
       </c>
       <c r="G10">
-        <v>0.002591903802676526</v>
+        <v>0.0007561165541463273</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2895219999239345</v>
+        <v>0.438495414148548</v>
       </c>
       <c r="K10">
-        <v>4.007504304577481</v>
+        <v>8.237655662215161</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07153996008926811</v>
+        <v>0.2484936608541091</v>
       </c>
       <c r="D11">
-        <v>0.01779396702136893</v>
+        <v>0.05669090034371749</v>
       </c>
       <c r="E11">
-        <v>0.09092806776114415</v>
+        <v>0.08715898444156522</v>
       </c>
       <c r="F11">
-        <v>6.463766043766498</v>
+        <v>10.93231209606859</v>
       </c>
       <c r="G11">
-        <v>0.002586616205130655</v>
+        <v>0.0007445269001810439</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2956002525491215</v>
+        <v>0.4736872345509084</v>
       </c>
       <c r="K11">
-        <v>4.133651315647967</v>
+        <v>8.965542677054088</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07320791032182683</v>
+        <v>0.2564207029465848</v>
       </c>
       <c r="D12">
-        <v>0.01802989508886554</v>
+        <v>0.05870291331391542</v>
       </c>
       <c r="E12">
-        <v>0.09115679531851484</v>
+        <v>0.08961166411042498</v>
       </c>
       <c r="F12">
-        <v>6.51975691826334</v>
+        <v>11.23605224683553</v>
       </c>
       <c r="G12">
-        <v>0.002584648647593976</v>
+        <v>0.0007400982377296891</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2979277763925268</v>
+        <v>0.4874263863251684</v>
       </c>
       <c r="K12">
-        <v>4.18192115737736</v>
+        <v>9.249084171616573</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07284845672596418</v>
+        <v>0.2547037181154792</v>
       </c>
       <c r="D13">
-        <v>0.01797896649105013</v>
+        <v>0.0582656245860278</v>
       </c>
       <c r="E13">
-        <v>0.09110707881148983</v>
+        <v>0.08907989344238842</v>
       </c>
       <c r="F13">
-        <v>6.507679170748418</v>
+        <v>11.17018679307893</v>
       </c>
       <c r="G13">
-        <v>0.002585070855119829</v>
+        <v>0.0007410541104299007</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2974253462851095</v>
+        <v>0.4844475356043461</v>
       </c>
       <c r="K13">
-        <v>4.171502995240076</v>
+        <v>9.18763679483726</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07167707980194393</v>
+        <v>0.2491415014696372</v>
       </c>
       <c r="D14">
-        <v>0.01781332434070038</v>
+        <v>0.05685467471555228</v>
       </c>
       <c r="E14">
-        <v>0.09094667991023186</v>
+        <v>0.08735919657889468</v>
       </c>
       <c r="F14">
-        <v>6.468363854121037</v>
+        <v>10.95710169405447</v>
       </c>
       <c r="G14">
-        <v>0.002586453638210584</v>
+        <v>0.0007441634598026104</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2957912190368006</v>
+        <v>0.4748087503721763</v>
       </c>
       <c r="K14">
-        <v>4.137612426947157</v>
+        <v>8.988700697764273</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07096024849910521</v>
+        <v>0.245762188942777</v>
       </c>
       <c r="D15">
-        <v>0.01771220455936628</v>
+        <v>0.05600166860180167</v>
       </c>
       <c r="E15">
-        <v>0.09084976541531731</v>
+        <v>0.08631530259534159</v>
       </c>
       <c r="F15">
-        <v>6.444337822330567</v>
+        <v>10.82785894368345</v>
       </c>
       <c r="G15">
-        <v>0.00258730514925652</v>
+        <v>0.0007460622725582127</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.294793646115906</v>
+        <v>0.4689612344312337</v>
       </c>
       <c r="K15">
-        <v>4.11691890308191</v>
+        <v>8.867930754277154</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.06686246206585622</v>
+        <v>0.2267861740346291</v>
       </c>
       <c r="D16">
-        <v>0.01713783983142747</v>
+        <v>0.05127056527476981</v>
       </c>
       <c r="E16">
-        <v>0.09031481661710572</v>
+        <v>0.08047582391527541</v>
       </c>
       <c r="F16">
-        <v>6.307498795200559</v>
+        <v>10.10523311325252</v>
       </c>
       <c r="G16">
-        <v>0.002592254235163279</v>
+        <v>0.0007568693605986956</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2891283586996849</v>
+        <v>0.4362484359691763</v>
       </c>
       <c r="K16">
-        <v>3.999329964085462</v>
+        <v>8.191096888773018</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06435738649572897</v>
+        <v>0.2154575601697104</v>
       </c>
       <c r="D17">
-        <v>0.01678992608673013</v>
+        <v>0.04849340877911601</v>
       </c>
       <c r="E17">
-        <v>0.09000484598890779</v>
+        <v>0.07700900281651712</v>
       </c>
       <c r="F17">
-        <v>6.224295402088899</v>
+        <v>9.67643331495961</v>
       </c>
       <c r="G17">
-        <v>0.002595352488051548</v>
+        <v>0.0007634467594057935</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2856983614980777</v>
+        <v>0.416822541714609</v>
       </c>
       <c r="K17">
-        <v>3.928076894658034</v>
+        <v>7.788133835045301</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06291967697424639</v>
+        <v>0.209043852693739</v>
       </c>
       <c r="D18">
-        <v>0.01659139946440291</v>
+        <v>0.04693668830748265</v>
       </c>
       <c r="E18">
-        <v>0.08983323869378523</v>
+        <v>0.07505317210342355</v>
       </c>
       <c r="F18">
-        <v>6.176707858859317</v>
+        <v>9.434564846251277</v>
       </c>
       <c r="G18">
-        <v>0.00259715744223829</v>
+        <v>0.000767215654136226</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2837420751835538</v>
+        <v>0.4058604817061422</v>
       </c>
       <c r="K18">
-        <v>3.887416528101767</v>
+        <v>7.560373822199267</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06243342524111029</v>
+        <v>0.2068887370660093</v>
       </c>
       <c r="D19">
-        <v>0.01652444934746455</v>
+        <v>0.0464161212044587</v>
       </c>
       <c r="E19">
-        <v>0.08977628172631924</v>
+        <v>0.07439715194391283</v>
       </c>
       <c r="F19">
-        <v>6.160641316244693</v>
+        <v>9.353441758240422</v>
       </c>
       <c r="G19">
-        <v>0.002597772513241909</v>
+        <v>0.0007684897240977882</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2830825395342771</v>
+        <v>0.4021830327078249</v>
       </c>
       <c r="K19">
-        <v>3.873704800771691</v>
+        <v>7.483905152235479</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06462372881780709</v>
+        <v>0.2166526647274907</v>
       </c>
       <c r="D20">
-        <v>0.01682679707397483</v>
+        <v>0.04878472373424358</v>
       </c>
       <c r="E20">
-        <v>0.09003715135753509</v>
+        <v>0.07737400922644255</v>
       </c>
       <c r="F20">
-        <v>6.233124627007442</v>
+        <v>9.721574599262794</v>
       </c>
       <c r="G20">
-        <v>0.002595020303330963</v>
+        <v>0.000762748164432578</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2860617734862956</v>
+        <v>0.4188680782643246</v>
       </c>
       <c r="K20">
-        <v>3.935628474525743</v>
+        <v>7.830604228609957</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07202100130933786</v>
+        <v>0.2507693963952562</v>
       </c>
       <c r="D21">
-        <v>0.01786190616024186</v>
+        <v>0.05726672366802887</v>
       </c>
       <c r="E21">
-        <v>0.09099351479439832</v>
+        <v>0.08786247566652605</v>
       </c>
       <c r="F21">
-        <v>6.479900076935792</v>
+        <v>11.01941962140739</v>
       </c>
       <c r="G21">
-        <v>0.002586046540417481</v>
+        <v>0.0007432514029195979</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2962704971407675</v>
+        <v>0.4776279413054851</v>
       </c>
       <c r="K21">
-        <v>4.147553259886649</v>
+        <v>9.046903648132513</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.07688534585773255</v>
+        <v>0.2742714164613034</v>
       </c>
       <c r="D22">
-        <v>0.01855353528830506</v>
+        <v>0.06329828268829374</v>
       </c>
       <c r="E22">
-        <v>0.0916782536179781</v>
+        <v>0.09515668808244016</v>
       </c>
       <c r="F22">
-        <v>6.643665388925115</v>
+        <v>11.92325994651492</v>
       </c>
       <c r="G22">
-        <v>0.002580384046207985</v>
+        <v>0.0007302655813123018</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3030932275195397</v>
+        <v>0.5184911897961371</v>
       </c>
       <c r="K22">
-        <v>4.288980434205826</v>
+        <v>9.888985203853849</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.0742863383788972</v>
+        <v>0.2616011311559419</v>
       </c>
       <c r="D23">
-        <v>0.01818296601341984</v>
+        <v>0.06002729254637273</v>
       </c>
       <c r="E23">
-        <v>0.09130732189785817</v>
+        <v>0.09121782182056748</v>
       </c>
       <c r="F23">
-        <v>6.556029169001533</v>
+        <v>11.43503067278573</v>
       </c>
       <c r="G23">
-        <v>0.002583387792103127</v>
+        <v>0.000737225219560617</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2994378531698203</v>
+        <v>0.4964239080926944</v>
       </c>
       <c r="K23">
-        <v>4.213228239641694</v>
+        <v>9.434590136928705</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06450330771252766</v>
+        <v>0.2161120517431101</v>
       </c>
       <c r="D24">
-        <v>0.0168101230598694</v>
+        <v>0.04865289721652033</v>
       </c>
       <c r="E24">
-        <v>0.09002252554843793</v>
+        <v>0.07720887467447213</v>
       </c>
       <c r="F24">
-        <v>6.229132165444582</v>
+        <v>9.701151860448192</v>
       </c>
       <c r="G24">
-        <v>0.002595170410030454</v>
+        <v>0.0007630640369575317</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2858974261703509</v>
+        <v>0.4179426549272165</v>
       </c>
       <c r="K24">
-        <v>3.932213459010029</v>
+        <v>7.81139130336561</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05406985807610454</v>
+        <v>0.1708608168939634</v>
       </c>
       <c r="D25">
-        <v>0.01538926631313586</v>
+        <v>0.03789968009169087</v>
       </c>
       <c r="E25">
-        <v>0.08889192644198829</v>
+        <v>0.06352778192453101</v>
       </c>
       <c r="F25">
-        <v>5.886747220328772</v>
+        <v>8.009019889231183</v>
       </c>
       <c r="G25">
-        <v>0.002608757241864421</v>
+        <v>0.0007904266310577314</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2719229922770268</v>
+        <v>0.3411841362162136</v>
       </c>
       <c r="K25">
-        <v>3.641395263629818</v>
+        <v>6.210486480966267</v>
       </c>
       <c r="L25">
         <v>0</v>
